--- a/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A46964A-7104-4318-B7E5-07731373E019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0946947A-5BE9-48E3-B35B-5683DB7D5C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6A10476-0ED9-4D12-9371-19D2A21B599A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B4F1B18-C7EB-480F-8CAA-B97682569B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>8,32%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>91,68%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>16,81%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>11,81%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>15,92%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>84,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BB74E6-DC8D-4BDE-AC75-7054F54E9D20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0306B-3980-48B4-A45F-B46E17CE22AF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1757,10 +1751,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,43 +1769,43 @@
         <v>2931242</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4572</v>
       </c>
       <c r="I20" s="7">
-        <v>3303869</v>
+        <v>3303868</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>7486</v>
       </c>
       <c r="N20" s="7">
-        <v>6235112</v>
+        <v>6235111</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,7 +1832,7 @@
         <v>5355</v>
       </c>
       <c r="I21" s="7">
-        <v>3801489</v>
+        <v>3801488</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1853,7 +1847,7 @@
         <v>8729</v>
       </c>
       <c r="N21" s="7">
-        <v>7184584</v>
+        <v>7184583</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0946947A-5BE9-48E3-B35B-5683DB7D5C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C202092F-CBBD-404F-8B35-AD5C69DCF566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B4F1B18-C7EB-480F-8CAA-B97682569B7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD1C4A81-070F-49A6-8815-ED71D1A5C63D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>15,47%</t>
@@ -188,7 +188,7 @@
     <t>86,1%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>16,81%</t>
@@ -245,7 +245,7 @@
     <t>86,25%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>9,59%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0306B-3980-48B4-A45F-B46E17CE22AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CE21CF-FF92-4B1A-812B-42289BA769C7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C202092F-CBBD-404F-8B35-AD5C69DCF566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C5EE55-1050-4665-9FF4-82EDCFCA6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD1C4A81-070F-49A6-8815-ED71D1A5C63D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC0F7694-03C1-48B8-9DD0-7F1C1CAA2D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>8,32%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>91,68%</t>
   </si>
   <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>16,81%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>11,81%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>84,08%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CE21CF-FF92-4B1A-812B-42289BA769C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C160E34-8C1D-452A-BFC0-AFE3C728C441}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1751,10 +1757,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,43 +1775,43 @@
         <v>2931242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4572</v>
       </c>
       <c r="I20" s="7">
-        <v>3303868</v>
+        <v>3303869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>7486</v>
       </c>
       <c r="N20" s="7">
-        <v>6235111</v>
+        <v>6235112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,7 +1838,7 @@
         <v>5355</v>
       </c>
       <c r="I21" s="7">
-        <v>3801488</v>
+        <v>3801489</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1847,7 +1853,7 @@
         <v>8729</v>
       </c>
       <c r="N21" s="7">
-        <v>7184583</v>
+        <v>7184584</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C5EE55-1050-4665-9FF4-82EDCFCA6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF5F4FC-79AC-48CA-9122-5DCF6116ED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC0F7694-03C1-48B8-9DD0-7F1C1CAA2D2A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1094AA6B-8DBD-4911-BFDE-D99669AFD11E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C160E34-8C1D-452A-BFC0-AFE3C728C441}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A931C-88CE-4CC2-9B52-96A0E134B907}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>8481</v>
+        <v>85937</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="I4" s="7">
-        <v>19228</v>
+        <v>101963</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="N4" s="7">
-        <v>27709</v>
+        <v>187899</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>617</v>
       </c>
       <c r="D5" s="7">
-        <v>93501</v>
+        <v>549504</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>207</v>
+        <v>1028</v>
       </c>
       <c r="I5" s="7">
-        <v>111162</v>
+        <v>572148</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>312</v>
+        <v>1645</v>
       </c>
       <c r="N5" s="7">
-        <v>204663</v>
+        <v>1121654</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="7">
-        <v>130390</v>
+        <v>674111</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>232372</v>
+        <v>1309553</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="D7" s="7">
-        <v>85050</v>
+        <v>356620</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="I7" s="7">
-        <v>92998</v>
+        <v>147631</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="N7" s="7">
-        <v>178049</v>
+        <v>504252</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>512</v>
+        <v>821</v>
       </c>
       <c r="D8" s="7">
-        <v>464773</v>
+        <v>835219</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>821</v>
+        <v>1256</v>
       </c>
       <c r="I8" s="7">
-        <v>498595</v>
+        <v>809425</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1333</v>
+        <v>2077</v>
       </c>
       <c r="N8" s="7">
-        <v>963367</v>
+        <v>1644643</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191839</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591593</v>
+        <v>957056</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1141416</v>
+        <v>2148895</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>174451</v>
+        <v>64399</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7">
-        <v>167320</v>
+        <v>64584</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>400</v>
+        <v>163</v>
       </c>
       <c r="N10" s="7">
-        <v>341771</v>
+        <v>128983</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>821</v>
+        <v>607</v>
       </c>
       <c r="D11" s="7">
-        <v>863624</v>
+        <v>639414</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1256</v>
+        <v>951</v>
       </c>
       <c r="I11" s="7">
-        <v>891025</v>
+        <v>867690</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2077</v>
+        <v>1558</v>
       </c>
       <c r="N11" s="7">
-        <v>1754649</v>
+        <v>1507104</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1038075</v>
+        <v>703813</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1058345</v>
+        <v>932274</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2096420</v>
+        <v>1636087</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D13" s="7">
-        <v>69829</v>
+        <v>102378</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="I13" s="7">
-        <v>73529</v>
+        <v>126312</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="N13" s="7">
-        <v>143358</v>
+        <v>228690</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>607</v>
+        <v>869</v>
       </c>
       <c r="D14" s="7">
-        <v>657982</v>
+        <v>824453</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>951</v>
+        <v>1337</v>
       </c>
       <c r="I14" s="7">
-        <v>799390</v>
+        <v>966579</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1558</v>
+        <v>2206</v>
       </c>
       <c r="N14" s="7">
-        <v>1457372</v>
+        <v>1791033</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727811</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>872919</v>
+        <v>1092891</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1600730</v>
+        <v>2019723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>137</v>
+        <v>460</v>
       </c>
       <c r="D16" s="7">
-        <v>114041</v>
+        <v>609334</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>783</v>
+      </c>
+      <c r="I16" s="7">
+        <v>440490</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>222</v>
-      </c>
-      <c r="I16" s="7">
-        <v>144544</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1243</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1049824</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>359</v>
-      </c>
-      <c r="N16" s="7">
-        <v>258585</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>869</v>
+        <v>2914</v>
       </c>
       <c r="D17" s="7">
-        <v>851362</v>
+        <v>2848590</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4572</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3215843</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1337</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1003698</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7486</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6064433</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>2206</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1855060</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3457924</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5355</v>
       </c>
       <c r="I18" s="7">
-        <v>1148242</v>
+        <v>3656333</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8729</v>
       </c>
       <c r="N18" s="7">
-        <v>2113645</v>
+        <v>7114257</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>460</v>
-      </c>
-      <c r="D19" s="7">
-        <v>451852</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>783</v>
-      </c>
-      <c r="I19" s="7">
-        <v>497620</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1243</v>
-      </c>
-      <c r="N19" s="7">
-        <v>949472</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2914</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2931242</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4572</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3303869</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7486</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6235112</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383094</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5355</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801489</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8729</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7184584</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
